--- a/data/trans_orig/P14_n_R2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14_n_R2-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>11533</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6284</v>
+        <v>6299</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>20938</v>
+        <v>19854</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02334408000137748</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01271868397893994</v>
+        <v>0.0127489094320702</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04237869249942885</v>
+        <v>0.04018532141411939</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>40</v>
@@ -765,19 +765,19 @@
         <v>36606</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>27286</v>
+        <v>25429</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>48626</v>
+        <v>48074</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07830320707697433</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05836625105659877</v>
+        <v>0.05439543170497015</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1040143264370382</v>
+        <v>0.1028341089558192</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>52</v>
@@ -786,19 +786,19 @@
         <v>48139</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>36258</v>
+        <v>36576</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>63527</v>
+        <v>61356</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05006418123633316</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03770743997592221</v>
+        <v>0.03803850776948652</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0660675109605745</v>
+        <v>0.0638093284447554</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>60622</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>47880</v>
+        <v>47285</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>75340</v>
+        <v>75811</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1227007176416642</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.09691028780159897</v>
+        <v>0.09570526801040553</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1524897151501195</v>
+        <v>0.1534436454781858</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>123</v>
@@ -836,19 +836,19 @@
         <v>118472</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>99869</v>
+        <v>100506</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>135587</v>
+        <v>138205</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2534214221658406</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2136280889521192</v>
+        <v>0.2149922166390882</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2900321418692041</v>
+        <v>0.2956332289190182</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>185</v>
@@ -857,19 +857,19 @@
         <v>179094</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>155547</v>
+        <v>155388</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>202368</v>
+        <v>203302</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1862546830018899</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1617664993961975</v>
+        <v>0.1616008514618965</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2104591606073437</v>
+        <v>0.2114305004861663</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>421909</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>406787</v>
+        <v>406113</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>436695</v>
+        <v>436871</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8539552023569583</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8233489527887584</v>
+        <v>0.8219848525329599</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8838826376788212</v>
+        <v>0.8842394997779144</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>326</v>
@@ -907,19 +907,19 @@
         <v>312411</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>294648</v>
+        <v>292574</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>332354</v>
+        <v>333300</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.668275370757185</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.6302781199549234</v>
+        <v>0.6258423800548112</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.710935308434343</v>
+        <v>0.7129574557442946</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>751</v>
@@ -928,19 +928,19 @@
         <v>734320</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>707159</v>
+        <v>708994</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>758443</v>
+        <v>759214</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.763681135761777</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.7354338294881032</v>
+        <v>0.7373425122354957</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7887685703479985</v>
+        <v>0.7895708853846609</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>32243</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>22871</v>
+        <v>22155</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>46533</v>
+        <v>46351</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.04383819491017627</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0310967237261118</v>
+        <v>0.03012294978466037</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.06326743456190188</v>
+        <v>0.06302057985803565</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>87</v>
@@ -1053,19 +1053,19 @@
         <v>92644</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>75729</v>
+        <v>75756</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>110771</v>
+        <v>110970</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1481136022982872</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.121070455533717</v>
+        <v>0.1211134546172012</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1770941432912858</v>
+        <v>0.1774124364863347</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>118</v>
@@ -1074,19 +1074,19 @@
         <v>124887</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>104008</v>
+        <v>105340</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>147720</v>
+        <v>147886</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.0917621220711464</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.07642127469708723</v>
+        <v>0.07740005269058294</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1085392573395514</v>
+        <v>0.1086611055764859</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>112098</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>94310</v>
+        <v>93147</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>132940</v>
+        <v>132366</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1524125258571323</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1282273833498357</v>
+        <v>0.1266463133811439</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1807511599689281</v>
+        <v>0.1799695519986309</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>131</v>
@@ -1124,19 +1124,19 @@
         <v>136172</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>115800</v>
+        <v>117033</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>155460</v>
+        <v>159617</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2177025278170422</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1851343514225939</v>
+        <v>0.18710550713506</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.24853950018851</v>
+        <v>0.2551856003531543</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>241</v>
@@ -1145,19 +1145,19 @@
         <v>248269</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>220633</v>
+        <v>222126</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>279111</v>
+        <v>279802</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1824191532742798</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1621128787202205</v>
+        <v>0.163210276018845</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2050805206536438</v>
+        <v>0.2055882425767247</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>591149</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>567077</v>
+        <v>567470</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>611175</v>
+        <v>613514</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8037492792326915</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7710205938573785</v>
+        <v>0.7715543238357011</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8309771512119767</v>
+        <v>0.8341577451690808</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>373</v>
@@ -1195,19 +1195,19 @@
         <v>396678</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>372459</v>
+        <v>372888</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>422427</v>
+        <v>420465</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6341838698846706</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5954641345313494</v>
+        <v>0.5961503532353237</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6753486552381731</v>
+        <v>0.6722128228746374</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>935</v>
@@ -1216,19 +1216,19 @@
         <v>987826</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>953776</v>
+        <v>951684</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1020080</v>
+        <v>1018377</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7258187246545738</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7007996090287361</v>
+        <v>0.6992626746354226</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.749517744112714</v>
+        <v>0.7482665369130644</v>
       </c>
     </row>
     <row r="11">
@@ -1320,19 +1320,19 @@
         <v>61219</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>46843</v>
+        <v>47183</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>75775</v>
+        <v>76192</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.09585370127673351</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.07334422283078935</v>
+        <v>0.07387651616233205</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1186450671033654</v>
+        <v>0.1192984313586596</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>121</v>
@@ -1341,19 +1341,19 @@
         <v>128254</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>108380</v>
+        <v>108435</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>151135</v>
+        <v>149073</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1859441652204543</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1571308574665518</v>
+        <v>0.1572100450259798</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2191176271659288</v>
+        <v>0.2161280334633575</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>181</v>
@@ -1362,19 +1362,19 @@
         <v>189473</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>166402</v>
+        <v>163013</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>216596</v>
+        <v>215677</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1426308965127185</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1252641946554833</v>
+        <v>0.1227123976245661</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1630485165433956</v>
+        <v>0.162356650943509</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>120924</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>100924</v>
+        <v>101327</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>141374</v>
+        <v>143593</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1893384035842904</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1580230187206549</v>
+        <v>0.1586530385224781</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2213577814878143</v>
+        <v>0.2248321588914761</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>163</v>
@@ -1412,19 +1412,19 @@
         <v>171510</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>150194</v>
+        <v>147731</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>196114</v>
+        <v>195553</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2486579192398903</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2177535209694439</v>
+        <v>0.2141826289214474</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2843280323794046</v>
+        <v>0.2835156088078439</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>281</v>
@@ -1433,19 +1433,19 @@
         <v>292435</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>264011</v>
+        <v>261017</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>323352</v>
+        <v>323584</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2201385620434529</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1987414977849707</v>
+        <v>0.1964877673267755</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2434127993849755</v>
+        <v>0.2435872561450256</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>456525</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>434006</v>
+        <v>431969</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>482003</v>
+        <v>477535</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7148078951389761</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6795487146872451</v>
+        <v>0.6763598802088014</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7546996891911057</v>
+        <v>0.7477051509180535</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>374</v>
@@ -1483,19 +1483,19 @@
         <v>389980</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>362702</v>
+        <v>361239</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>415965</v>
+        <v>416780</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5653979155396555</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5258505947422821</v>
+        <v>0.5237292777236154</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6030717910157579</v>
+        <v>0.604252479817336</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>809</v>
@@ -1504,19 +1504,19 @@
         <v>846505</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>812607</v>
+        <v>806993</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>881716</v>
+        <v>879801</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6372305414438286</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6117133266930287</v>
+        <v>0.6074871128189837</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6637364866271231</v>
+        <v>0.6622949920142792</v>
       </c>
     </row>
     <row r="15">
@@ -1608,19 +1608,19 @@
         <v>81754</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>66602</v>
+        <v>64970</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>101516</v>
+        <v>99364</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1574772604588385</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1282918095920193</v>
+        <v>0.1251474253032909</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1955446616749041</v>
+        <v>0.19139906736243</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>147</v>
@@ -1629,19 +1629,19 @@
         <v>149739</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>130763</v>
+        <v>129453</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>171601</v>
+        <v>171275</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.290394024826667</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2535935120911664</v>
+        <v>0.2510529829588592</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3327917509031239</v>
+        <v>0.3321585264983047</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>223</v>
@@ -1650,19 +1650,19 @@
         <v>231493</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>205915</v>
+        <v>205013</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>258505</v>
+        <v>260158</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2237105338241253</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1989925821301401</v>
+        <v>0.1981210551472485</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2498141743934141</v>
+        <v>0.2514112732616163</v>
       </c>
     </row>
     <row r="17">
@@ -1679,19 +1679,19 @@
         <v>161069</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>140153</v>
+        <v>140217</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>183294</v>
+        <v>184446</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3102577094964939</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2699676996205119</v>
+        <v>0.2700910454880717</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3530684250465048</v>
+        <v>0.3552865640776827</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>150</v>
@@ -1700,19 +1700,19 @@
         <v>151311</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>131028</v>
+        <v>130744</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>169395</v>
+        <v>171837</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2934412142770021</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2541074935855125</v>
+        <v>0.253555925824841</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.32851201914631</v>
+        <v>0.3332479334023916</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>306</v>
@@ -1721,19 +1721,19 @@
         <v>312380</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>284280</v>
+        <v>283867</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>344520</v>
+        <v>343116</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3018779424278619</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2747223165939576</v>
+        <v>0.2743240161010591</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3329371736278047</v>
+        <v>0.3315808434790103</v>
       </c>
     </row>
     <row r="18">
@@ -1750,19 +1750,19 @@
         <v>276324</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>251975</v>
+        <v>254141</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>299591</v>
+        <v>301713</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.5322650300446676</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4853636265970488</v>
+        <v>0.489535358726147</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5770825579306876</v>
+        <v>0.5811703101156819</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>205</v>
@@ -1771,19 +1771,19 @@
         <v>214592</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>193380</v>
+        <v>192279</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>237317</v>
+        <v>238042</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4161647608963309</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3750268151743033</v>
+        <v>0.3728921092538334</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4602369466389936</v>
+        <v>0.4616411154417354</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>457</v>
@@ -1792,19 +1792,19 @@
         <v>490916</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>456601</v>
+        <v>459974</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>524822</v>
+        <v>523141</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.4744115237480128</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.441250289112955</v>
+        <v>0.4445096660972062</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.5071782625642058</v>
+        <v>0.5055531687530193</v>
       </c>
     </row>
     <row r="19">
@@ -1896,19 +1896,19 @@
         <v>162410</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>143701</v>
+        <v>143911</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>181260</v>
+        <v>181829</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4199783044849174</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3715986097263109</v>
+        <v>0.3721417278814004</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4687232453886724</v>
+        <v>0.4701955672465055</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>204</v>
@@ -1917,19 +1917,19 @@
         <v>208655</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>188198</v>
+        <v>189363</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>228436</v>
+        <v>227678</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5164905046851849</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4658524751621462</v>
+        <v>0.4687356287403859</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5654542174341615</v>
+        <v>0.563578929231596</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>371</v>
@@ -1938,19 +1938,19 @@
         <v>371065</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>343527</v>
+        <v>344447</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>399095</v>
+        <v>402759</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.469288753738948</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4344615201999703</v>
+        <v>0.4356249478064038</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5047394523135069</v>
+        <v>0.5093728568508155</v>
       </c>
     </row>
     <row r="21">
@@ -1967,19 +1967,19 @@
         <v>134503</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>115908</v>
+        <v>117363</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>152999</v>
+        <v>155024</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3478134666983216</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2997278752637008</v>
+        <v>0.3034919199480841</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3956418921325052</v>
+        <v>0.4008786481173444</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>105</v>
@@ -1988,19 +1988,19 @@
         <v>106400</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>88468</v>
+        <v>89442</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>123873</v>
+        <v>124469</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2633766573583817</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2189866780515917</v>
+        <v>0.2213997234242233</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.306627403708742</v>
+        <v>0.3081019008561047</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>239</v>
@@ -2009,19 +2009,19 @@
         <v>240903</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>213923</v>
+        <v>215510</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>268330</v>
+        <v>265023</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3046726306849508</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2705501867704388</v>
+        <v>0.272557422249099</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3393595707828979</v>
+        <v>0.3351762557340601</v>
       </c>
     </row>
     <row r="22">
@@ -2038,19 +2038,19 @@
         <v>89797</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>74126</v>
+        <v>74398</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>106543</v>
+        <v>108514</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2322082288167609</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1916826900643793</v>
+        <v>0.192387267842895</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2755109793412803</v>
+        <v>0.2806080905280696</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>87</v>
@@ -2059,19 +2059,19 @@
         <v>88931</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>72780</v>
+        <v>73434</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>106676</v>
+        <v>105663</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2201328379564334</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1801543438479692</v>
+        <v>0.1817723955056125</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2640595512291421</v>
+        <v>0.2615519385792791</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>178</v>
@@ -2080,19 +2080,19 @@
         <v>178728</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>157676</v>
+        <v>155069</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>204085</v>
+        <v>200705</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2260386155761013</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1994141830350331</v>
+        <v>0.1961171675166726</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2581076768165211</v>
+        <v>0.253832796776199</v>
       </c>
     </row>
     <row r="23">
@@ -2184,19 +2184,19 @@
         <v>153139</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>136727</v>
+        <v>137471</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>169023</v>
+        <v>169908</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.523403659248842</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4673096462430839</v>
+        <v>0.4698529784110196</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.5776913041690037</v>
+        <v>0.5807183681562521</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>268</v>
@@ -2205,19 +2205,19 @@
         <v>247499</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>230546</v>
+        <v>232930</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>261653</v>
+        <v>263413</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.7217111536332596</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.6722756996931126</v>
+        <v>0.6792282246780763</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.7629830330426959</v>
+        <v>0.7681166132353542</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>431</v>
@@ -2226,19 +2226,19 @@
         <v>400638</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>377057</v>
+        <v>376808</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>422012</v>
+        <v>423294</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.6304131997740986</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.5933081776234773</v>
+        <v>0.5929150246646886</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.664044820211802</v>
+        <v>0.6660628299115181</v>
       </c>
     </row>
     <row r="25">
@@ -2255,19 +2255,19 @@
         <v>84028</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>68312</v>
+        <v>68835</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>100155</v>
+        <v>99100</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2871925990550075</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2334787127154052</v>
+        <v>0.2352677883800256</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3423147586309184</v>
+        <v>0.3387059090280397</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>80</v>
@@ -2276,19 +2276,19 @@
         <v>74038</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>61356</v>
+        <v>59717</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>89703</v>
+        <v>87903</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.21589719862482</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1789135756452205</v>
+        <v>0.1741344770565208</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2615759111195219</v>
+        <v>0.2563258825214618</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>166</v>
@@ -2297,19 +2297,19 @@
         <v>158066</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>138553</v>
+        <v>137032</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>179058</v>
+        <v>179819</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2487205883764336</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2180156627615486</v>
+        <v>0.215623128210234</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2817523054764244</v>
+        <v>0.2829487649887905</v>
       </c>
     </row>
     <row r="26">
@@ -2326,19 +2326,19 @@
         <v>55416</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>43392</v>
+        <v>42577</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>69133</v>
+        <v>69792</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1894037416961504</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1483067153776294</v>
+        <v>0.145521958234103</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2362849274734058</v>
+        <v>0.2385373961919487</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>23</v>
@@ -2347,19 +2347,19 @@
         <v>21396</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>13988</v>
+        <v>13751</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>30899</v>
+        <v>30257</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.06239164774192042</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.04079056904904642</v>
+        <v>0.04009926331443901</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.09010268998553983</v>
+        <v>0.08823033141587831</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>77</v>
@@ -2368,19 +2368,19 @@
         <v>76813</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>59933</v>
+        <v>60217</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>92214</v>
+        <v>94573</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1208662118494678</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.09430579872030137</v>
+        <v>0.09475271104326467</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1451000420012653</v>
+        <v>0.1488131601573628</v>
       </c>
     </row>
     <row r="27">
@@ -2472,19 +2472,19 @@
         <v>145685</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>131893</v>
+        <v>131758</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>157659</v>
+        <v>158112</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.6941268943756173</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.6284097180596679</v>
+        <v>0.6277698862549043</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.7511749349629958</v>
+        <v>0.7533347100126973</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>234</v>
@@ -2493,19 +2493,19 @@
         <v>268963</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>253056</v>
+        <v>253859</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>283846</v>
+        <v>282804</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.805501632574362</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.7578622176133497</v>
+        <v>0.7602676090359151</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.8500734148341226</v>
+        <v>0.8469510325819292</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>387</v>
@@ -2514,19 +2514,19 @@
         <v>414649</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>392947</v>
+        <v>393894</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>433943</v>
+        <v>433521</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.7625151451707781</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.7226074112495864</v>
+        <v>0.724348165969392</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.7979964583072041</v>
+        <v>0.797219482800787</v>
       </c>
     </row>
     <row r="29">
@@ -2543,19 +2543,19 @@
         <v>46545</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>35578</v>
+        <v>35366</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>58680</v>
+        <v>59262</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2217679076209705</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1695126924310001</v>
+        <v>0.1685042770999354</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2795820613307644</v>
+        <v>0.2823582464717214</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>45</v>
@@ -2564,19 +2564,19 @@
         <v>52587</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>38187</v>
+        <v>39549</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>66987</v>
+        <v>67662</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.157490123758266</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1143636692196252</v>
+        <v>0.118443682361819</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.200616014645918</v>
+        <v>0.2026367535927731</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>93</v>
@@ -2585,19 +2585,19 @@
         <v>99133</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>80804</v>
+        <v>80990</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>119343</v>
+        <v>117569</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1822989465760023</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1485936310589789</v>
+        <v>0.1489367724440244</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2194647811466265</v>
+        <v>0.2162018504525106</v>
       </c>
     </row>
     <row r="30">
@@ -2614,19 +2614,19 @@
         <v>17652</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>11360</v>
+        <v>11050</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>26555</v>
+        <v>26998</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.08410519800341232</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.05412360803430684</v>
+        <v>0.05264882165635995</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.126524613984255</v>
+        <v>0.1286320426060761</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>11</v>
@@ -2635,19 +2635,19 @@
         <v>12357</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>6269</v>
+        <v>6137</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>21575</v>
+        <v>22068</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.03700824366737192</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01877314071069364</v>
+        <v>0.01837871734804809</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.06461219270264648</v>
+        <v>0.06609126037093176</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>30</v>
@@ -2656,19 +2656,19 @@
         <v>30010</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>20912</v>
+        <v>20151</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>42251</v>
+        <v>41121</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.05518590825321947</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.03845609529169581</v>
+        <v>0.03705738488398003</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.07769776803252779</v>
+        <v>0.07561898477897271</v>
       </c>
     </row>
     <row r="31">
@@ -2760,19 +2760,19 @@
         <v>647983</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>601869</v>
+        <v>602764</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>691471</v>
+        <v>693707</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1977641401705281</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1836902442071196</v>
+        <v>0.183963270024117</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2110368303081016</v>
+        <v>0.211719058118747</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1101</v>
@@ -2781,19 +2781,19 @@
         <v>1132361</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1077281</v>
+        <v>1077316</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>1185222</v>
+        <v>1185809</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3350976316574633</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3187980497467797</v>
+        <v>0.3188083237191427</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3507406700124574</v>
+        <v>0.3509144351144274</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1763</v>
@@ -2802,19 +2802,19 @@
         <v>1780344</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1703941</v>
+        <v>1714496</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1853234</v>
+        <v>1853444</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2674899589204349</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2560107588528546</v>
+        <v>0.2575965742536874</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2784414872857595</v>
+        <v>0.2784729992324192</v>
       </c>
     </row>
     <row r="33">
@@ -2831,19 +2831,19 @@
         <v>719789</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>677729</v>
+        <v>675377</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>771532</v>
+        <v>770681</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.2196794754031551</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.2068427398874251</v>
+        <v>0.2061248863663024</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.235471419809991</v>
+        <v>0.235211720508165</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>797</v>
@@ -2852,19 +2852,19 @@
         <v>810490</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>758999</v>
+        <v>762241</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>858966</v>
+        <v>857965</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.23984706006182</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.2246092389081231</v>
+        <v>0.2255686375098144</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.2541923848687889</v>
+        <v>0.2538960515019897</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>1511</v>
@@ -2873,19 +2873,19 @@
         <v>1530280</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>1463693</v>
+        <v>1467817</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>1592058</v>
+        <v>1609058</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.2299187938484103</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.2199142963853485</v>
+        <v>0.2205340395080071</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.2392007587172627</v>
+        <v>0.2417548343497476</v>
       </c>
     </row>
     <row r="34">
@@ -2902,19 +2902,19 @@
         <v>1908771</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>1850614</v>
+        <v>1849816</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>1965630</v>
+        <v>1964320</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.5825563844263167</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.5648070139720753</v>
+        <v>0.5645634071098433</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.5999097614345623</v>
+        <v>0.5995099953480203</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>1399</v>
@@ -2923,19 +2923,19 @@
         <v>1436346</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>1382979</v>
+        <v>1379209</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>1496182</v>
+        <v>1489408</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.4250553082807167</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.4092625705483795</v>
+        <v>0.4081469544820988</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.4427626270032043</v>
+        <v>0.4407580462236166</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>3237</v>
@@ -2944,19 +2944,19 @@
         <v>3345117</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>3263538</v>
+        <v>3261034</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>3427508</v>
+        <v>3420931</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.5025912472311548</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.4903343077575062</v>
+        <v>0.4899580200906325</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.5149700962770787</v>
+        <v>0.5139819707932045</v>
       </c>
     </row>
     <row r="35">
@@ -3291,19 +3291,19 @@
         <v>13262</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7636</v>
+        <v>7558</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>21768</v>
+        <v>21809</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02920204657657674</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01681298693073505</v>
+        <v>0.01664211098491037</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04793173613078355</v>
+        <v>0.04802245268615939</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>42</v>
@@ -3312,19 +3312,19 @@
         <v>42324</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>31530</v>
+        <v>31864</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>56122</v>
+        <v>55726</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09837524725359505</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07328695329194825</v>
+        <v>0.07406219058667725</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1304472141742205</v>
+        <v>0.1295252232498401</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>56</v>
@@ -3333,19 +3333,19 @@
         <v>55586</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>43695</v>
+        <v>41982</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>72075</v>
+        <v>70242</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.062853314865061</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04940823694504803</v>
+        <v>0.04747128245774589</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0814980724894282</v>
+        <v>0.07942572331510107</v>
       </c>
     </row>
     <row r="5">
@@ -3362,19 +3362,19 @@
         <v>63410</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>50200</v>
+        <v>49949</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>79358</v>
+        <v>78506</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1396249237528183</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.110536841359899</v>
+        <v>0.1099837885767277</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1747402925283258</v>
+        <v>0.1728656695243993</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>78</v>
@@ -3383,19 +3383,19 @@
         <v>81023</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>66220</v>
+        <v>66317</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>99665</v>
+        <v>100163</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1883237088125002</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1539187679435892</v>
+        <v>0.154144182027057</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2316556360514711</v>
+        <v>0.2328115353545706</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>140</v>
@@ -3404,19 +3404,19 @@
         <v>144433</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>122300</v>
+        <v>124764</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>169335</v>
+        <v>167984</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1633158310019756</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1382892103621803</v>
+        <v>0.1410760624722135</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1914738614612531</v>
+        <v>0.1899460159751706</v>
       </c>
     </row>
     <row r="6">
@@ -3433,19 +3433,19 @@
         <v>377474</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>359323</v>
+        <v>360079</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>390978</v>
+        <v>391811</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8311730296706049</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7912069561305929</v>
+        <v>0.7928708954877554</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8609080032302022</v>
+        <v>0.8627417058781049</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>301</v>
@@ -3454,19 +3454,19 @@
         <v>306884</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>287744</v>
+        <v>286663</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>324382</v>
+        <v>324314</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.7133010439339048</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.6688153445374322</v>
+        <v>0.6663010880727317</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7539738906304617</v>
+        <v>0.7538144860563694</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>671</v>
@@ -3475,19 +3475,19 @@
         <v>684357</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>655137</v>
+        <v>661072</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>707892</v>
+        <v>708483</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.7738308541329634</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.740790560659602</v>
+        <v>0.7475009557262051</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8004424082672701</v>
+        <v>0.8011107021995046</v>
       </c>
     </row>
     <row r="7">
@@ -3579,19 +3579,19 @@
         <v>48125</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>35515</v>
+        <v>36029</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>63991</v>
+        <v>64666</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.07004234208347346</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.05168946753820016</v>
+        <v>0.05243678466159453</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.09313380943844218</v>
+        <v>0.09411605575811886</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>67</v>
@@ -3600,19 +3600,19 @@
         <v>69950</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>55659</v>
+        <v>55981</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>87479</v>
+        <v>88697</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1146235330254186</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.09120627902198873</v>
+        <v>0.09173364200097577</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.143347472484355</v>
+        <v>0.1453434673608975</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>114</v>
@@ -3621,19 +3621,19 @@
         <v>118075</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>98657</v>
+        <v>99916</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>143459</v>
+        <v>142973</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.0910128367507753</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.07604554003718945</v>
+        <v>0.07701614470760977</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1105788787857315</v>
+        <v>0.110204210028459</v>
       </c>
     </row>
     <row r="9">
@@ -3650,19 +3650,19 @@
         <v>111973</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>94046</v>
+        <v>90822</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>132238</v>
+        <v>131510</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1629683800299132</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1368770913550578</v>
+        <v>0.1321838209366491</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1924613110531239</v>
+        <v>0.1914021291890178</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>139</v>
@@ -3671,19 +3671,19 @@
         <v>149961</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>129956</v>
+        <v>127934</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>172620</v>
+        <v>173067</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2457344226985409</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2129543104922395</v>
+        <v>0.2096397061895613</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2828657793515684</v>
+        <v>0.2835982830709171</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>247</v>
@@ -3692,19 +3692,19 @@
         <v>261934</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>233671</v>
+        <v>232476</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>295418</v>
+        <v>290663</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2019006027844901</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1801150789674023</v>
+        <v>0.1791942117179556</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2277100080405546</v>
+        <v>0.2240452440687475</v>
       </c>
     </row>
     <row r="10">
@@ -3721,19 +3721,19 @@
         <v>526988</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>502220</v>
+        <v>503991</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>548311</v>
+        <v>550304</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7669892778866133</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7309413397079518</v>
+        <v>0.7335180724824288</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7980227578851485</v>
+        <v>0.800923261651304</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>365</v>
@@ -3742,19 +3742,19 @@
         <v>390345</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>366531</v>
+        <v>365618</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>413112</v>
+        <v>416488</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6396420442760405</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6006189345064996</v>
+        <v>0.5991227105627959</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.67694905379492</v>
+        <v>0.682481103131955</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>877</v>
@@ -3763,19 +3763,19 @@
         <v>917333</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>880294</v>
+        <v>882907</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>946814</v>
+        <v>950593</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7070865604647346</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6785368603346298</v>
+        <v>0.6805506916972016</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7298106068293901</v>
+        <v>0.7327237816144186</v>
       </c>
     </row>
     <row r="11">
@@ -3867,19 +3867,19 @@
         <v>68516</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>53552</v>
+        <v>54542</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>84380</v>
+        <v>85355</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1004832605075848</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.07853766904017881</v>
+        <v>0.07998956549843254</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1237490009404604</v>
+        <v>0.1251797172271978</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>156</v>
@@ -3888,19 +3888,19 @@
         <v>165608</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>142945</v>
+        <v>143302</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>188838</v>
+        <v>190067</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2329724924685706</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2010908509023383</v>
+        <v>0.2015924682861453</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2656504119764495</v>
+        <v>0.2673794591599992</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>220</v>
@@ -3909,19 +3909,19 @@
         <v>234124</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>206494</v>
+        <v>207446</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>265652</v>
+        <v>266592</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1681066482828172</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1482673821096376</v>
+        <v>0.1489510507083254</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1907442019365705</v>
+        <v>0.1914193060980514</v>
       </c>
     </row>
     <row r="13">
@@ -3938,19 +3938,19 @@
         <v>130731</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>110568</v>
+        <v>107654</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>152683</v>
+        <v>152730</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1917266511300004</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1621561613723884</v>
+        <v>0.1578817142473952</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2239208522193382</v>
+        <v>0.2239896207327689</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>169</v>
@@ -3959,19 +3959,19 @@
         <v>179656</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>155397</v>
+        <v>156659</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>203679</v>
+        <v>205596</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2527338587849619</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2186067640313553</v>
+        <v>0.2203828073329872</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2865290092651259</v>
+        <v>0.2892249161077154</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>292</v>
@@ -3980,19 +3980,19 @@
         <v>310387</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>277568</v>
+        <v>277624</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>343916</v>
+        <v>343126</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2228651368716222</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1993005631086292</v>
+        <v>0.199340788976643</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2469395601316741</v>
+        <v>0.2463723751806969</v>
       </c>
     </row>
     <row r="14">
@@ -4009,19 +4009,19 @@
         <v>482616</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>458316</v>
+        <v>456597</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>506468</v>
+        <v>506930</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7077900883624147</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6721532542741947</v>
+        <v>0.6696318839489789</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7427707951695335</v>
+        <v>0.7434479732481536</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>342</v>
@@ -4030,19 +4030,19 @@
         <v>365586</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>338461</v>
+        <v>338775</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>394005</v>
+        <v>393096</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5142936487464674</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4761352187244299</v>
+        <v>0.4765768103014589</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5542735589850947</v>
+        <v>0.5529945940867529</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>806</v>
@@ -4051,19 +4051,19 @@
         <v>848201</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>806271</v>
+        <v>810169</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>890043</v>
+        <v>888275</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6090282148455606</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.578921610415371</v>
+        <v>0.5817202938898741</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6390716300675841</v>
+        <v>0.6378024848458091</v>
       </c>
     </row>
     <row r="15">
@@ -4155,19 +4155,19 @@
         <v>100942</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>82099</v>
+        <v>83091</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>121211</v>
+        <v>120860</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1642354562227683</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1335775171623388</v>
+        <v>0.1351914622046208</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1972131742402831</v>
+        <v>0.1966431002281659</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>182</v>
@@ -4176,19 +4176,19 @@
         <v>203991</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>179677</v>
+        <v>180373</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>227716</v>
+        <v>228518</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3310470578285442</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2915890757960601</v>
+        <v>0.2927186471188177</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3695496986212803</v>
+        <v>0.3708502477025186</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>272</v>
@@ -4197,19 +4197,19 @@
         <v>304933</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>269376</v>
+        <v>271044</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>334123</v>
+        <v>336377</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2477484892237276</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2188599931252201</v>
+        <v>0.2202146811989459</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2714645629723124</v>
+        <v>0.2732958365056915</v>
       </c>
     </row>
     <row r="17">
@@ -4226,19 +4226,19 @@
         <v>146341</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>124106</v>
+        <v>122474</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>168127</v>
+        <v>168128</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2381006782944022</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2019237530568957</v>
+        <v>0.199269592838076</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2735471486439095</v>
+        <v>0.2735489325455408</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>152</v>
@@ -4247,19 +4247,19 @@
         <v>175307</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>151736</v>
+        <v>152025</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>202145</v>
+        <v>200491</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.284496831226297</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2462450967852697</v>
+        <v>0.2467135093994414</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3280521872899549</v>
+        <v>0.325368034074267</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>285</v>
@@ -4268,19 +4268,19 @@
         <v>321647</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>289887</v>
+        <v>284660</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>357336</v>
+        <v>350863</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2613285797929795</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2355243003683422</v>
+        <v>0.2312774235073157</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2903245233682413</v>
+        <v>0.2850655805960285</v>
       </c>
     </row>
     <row r="18">
@@ -4297,19 +4297,19 @@
         <v>367334</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>343190</v>
+        <v>340022</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>392722</v>
+        <v>392892</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.5976638654828295</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5583802597544821</v>
+        <v>0.553225111861155</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6389704265255247</v>
+        <v>0.6392473773739306</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>205</v>
@@ -4318,19 +4318,19 @@
         <v>236901</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>212195</v>
+        <v>210051</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>263029</v>
+        <v>262080</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3844561109451588</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.344361333222009</v>
+        <v>0.3408816640714856</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4268565322983551</v>
+        <v>0.4253169090261448</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>530</v>
@@ -4339,19 +4339,19 @@
         <v>604236</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>566389</v>
+        <v>568013</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>645086</v>
+        <v>644051</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.4909229309832929</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4601738171042573</v>
+        <v>0.4614933059726392</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.5241124154659046</v>
+        <v>0.5232714222399446</v>
       </c>
     </row>
     <row r="19">
@@ -4443,19 +4443,19 @@
         <v>174516</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>153492</v>
+        <v>154617</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>197458</v>
+        <v>198358</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4063914101156273</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3574336218082765</v>
+        <v>0.3600521834753608</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4598152691378569</v>
+        <v>0.4619105142531853</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>251</v>
@@ -4464,19 +4464,19 @@
         <v>273084</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>245200</v>
+        <v>252532</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>290958</v>
+        <v>294682</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6098343542557809</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.547566078471731</v>
+        <v>0.5639392070122027</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6497488892384879</v>
+        <v>0.6580670714621558</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>413</v>
@@ -4485,19 +4485,19 @@
         <v>447600</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>415664</v>
+        <v>417825</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>477412</v>
+        <v>479249</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.510243122467461</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4738380090198081</v>
+        <v>0.4763006281264519</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5442270458341877</v>
+        <v>0.5463219423956596</v>
       </c>
     </row>
     <row r="21">
@@ -4514,19 +4514,19 @@
         <v>129237</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>108082</v>
+        <v>110759</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>150842</v>
+        <v>151242</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3009517188359621</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2516870893400809</v>
+        <v>0.2579212959168626</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3512626084838198</v>
+        <v>0.3521938114094467</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>79</v>
@@ -4535,19 +4535,19 @@
         <v>86258</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>69697</v>
+        <v>68927</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>104955</v>
+        <v>103626</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1926259601596479</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.155643634406164</v>
+        <v>0.1539241158664517</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2343798628520184</v>
+        <v>0.2314114881649414</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>194</v>
@@ -4556,19 +4556,19 @@
         <v>215495</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>190187</v>
+        <v>188209</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>243689</v>
+        <v>243335</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2456545662220251</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2168041031789113</v>
+        <v>0.2145492421899725</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2777935597024632</v>
+        <v>0.2773904431329352</v>
       </c>
     </row>
     <row r="22">
@@ -4585,19 +4585,19 @@
         <v>125675</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>106869</v>
+        <v>106041</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>144762</v>
+        <v>146349</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2926568710484106</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2488639062093887</v>
+        <v>0.2469339097220437</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3371041931485312</v>
+        <v>0.3408001305195038</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>76</v>
@@ -4606,19 +4606,19 @@
         <v>88458</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>73073</v>
+        <v>71406</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>108271</v>
+        <v>108462</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1975396855845712</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1631815801302489</v>
+        <v>0.1594594528305454</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2417831999779332</v>
+        <v>0.2422109519748906</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>192</v>
@@ -4627,19 +4627,19 @@
         <v>214134</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>190362</v>
+        <v>189371</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>241094</v>
+        <v>240693</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2441023113105139</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2170034105731725</v>
+        <v>0.2158741610974149</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2748357176204234</v>
+        <v>0.2743788718924718</v>
       </c>
     </row>
     <row r="23">
@@ -4731,19 +4731,19 @@
         <v>222262</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>203505</v>
+        <v>205703</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>237231</v>
+        <v>238874</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.7174693119229476</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.6569202640620326</v>
+        <v>0.6640172163185306</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.7657897813706822</v>
+        <v>0.7710950241828601</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>265</v>
@@ -4752,19 +4752,19 @@
         <v>271529</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>254814</v>
+        <v>254109</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>286365</v>
+        <v>287602</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.7670390308901526</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.7198208304610265</v>
+        <v>0.7178301916539335</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.8089489079247544</v>
+        <v>0.8124455024887082</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>468</v>
@@ -4773,19 +4773,19 @@
         <v>493791</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>470560</v>
+        <v>470092</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>516873</v>
+        <v>516233</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.7439049149013457</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.7089077558268903</v>
+        <v>0.7082024956376737</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.7786794327153034</v>
+        <v>0.7777148467075465</v>
       </c>
     </row>
     <row r="25">
@@ -4802,19 +4802,19 @@
         <v>58147</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>45077</v>
+        <v>44627</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>75262</v>
+        <v>74089</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1877019167789516</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.145511195250542</v>
+        <v>0.144059116654584</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2429481529063083</v>
+        <v>0.2391610793984391</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>56</v>
@@ -4823,19 +4823,19 @@
         <v>57918</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>45217</v>
+        <v>44062</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>73181</v>
+        <v>74184</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1636120351373352</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1277338654232374</v>
+        <v>0.1244714562841803</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2067272247033062</v>
+        <v>0.2095623480410017</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>107</v>
@@ -4844,19 +4844,19 @@
         <v>116065</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>98015</v>
+        <v>96397</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>138068</v>
+        <v>135632</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1748547479802804</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1476615845263922</v>
+        <v>0.1452232562267577</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2080023407659548</v>
+        <v>0.2043319055422006</v>
       </c>
     </row>
     <row r="26">
@@ -4873,19 +4873,19 @@
         <v>29377</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>20823</v>
+        <v>20884</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>41641</v>
+        <v>41378</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.09482877129810074</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.06721729725969879</v>
+        <v>0.06741282674730079</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1344187885309203</v>
+        <v>0.1335698867219467</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>23</v>
@@ -4894,19 +4894,19 @@
         <v>24549</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>17012</v>
+        <v>16256</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>36726</v>
+        <v>35652</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.06934893397251221</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.04805597541807628</v>
+        <v>0.04592043370587946</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1037468729878862</v>
+        <v>0.1007132415660718</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>51</v>
@@ -4915,19 +4915,19 @@
         <v>53926</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>40875</v>
+        <v>40980</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>69343</v>
+        <v>71504</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.08124033711837379</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.06157821681007834</v>
+        <v>0.06173733103717074</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1044658036577148</v>
+        <v>0.107722817197081</v>
       </c>
     </row>
     <row r="27">
@@ -5019,19 +5019,19 @@
         <v>205230</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>191918</v>
+        <v>189692</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>217678</v>
+        <v>215669</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.8214115093874367</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.7681295444689336</v>
+        <v>0.7592215383032114</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8712298839698077</v>
+        <v>0.8631887527569587</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>316</v>
@@ -5040,19 +5040,19 @@
         <v>350092</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>336486</v>
+        <v>337292</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>361213</v>
+        <v>361691</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.9000267520231918</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.8650481295855471</v>
+        <v>0.8671217664701552</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.9286194070913932</v>
+        <v>0.9298475856421918</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>497</v>
@@ -5061,19 +5061,19 @@
         <v>555322</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>536389</v>
+        <v>536162</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>570889</v>
+        <v>572750</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.8692797770141656</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.8396433233984371</v>
+        <v>0.8392871333707572</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.8936477461951403</v>
+        <v>0.8965613747182126</v>
       </c>
     </row>
     <row r="29">
@@ -5090,19 +5090,19 @@
         <v>31516</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>22002</v>
+        <v>21108</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>44657</v>
+        <v>43033</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1261395996500111</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.08806072633373817</v>
+        <v>0.08448392965916363</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1787351303501356</v>
+        <v>0.1722350936547103</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>23</v>
@@ -5111,19 +5111,19 @@
         <v>25567</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>16747</v>
+        <v>16149</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>36824</v>
+        <v>36094</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.06572862158409952</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.04305404118542219</v>
+        <v>0.04151674145490401</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.09466935800756095</v>
+        <v>0.09279212083640669</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>52</v>
@@ -5132,19 +5132,19 @@
         <v>57083</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>43654</v>
+        <v>43052</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>72696</v>
+        <v>74909</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.08935578052412194</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.06833475033068205</v>
+        <v>0.06739143278929005</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1137962288974155</v>
+        <v>0.1172589247450569</v>
       </c>
     </row>
     <row r="30">
@@ -5161,19 +5161,19 @@
         <v>13104</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>6583</v>
+        <v>6646</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>21225</v>
+        <v>21014</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.05244889096255219</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.02634861777129318</v>
+        <v>0.02660073756390405</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.08494929365915239</v>
+        <v>0.08410803977873287</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>11</v>
@@ -5182,19 +5182,19 @@
         <v>13320</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>7443</v>
+        <v>6942</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>22604</v>
+        <v>22459</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.03424462639270866</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01913435124217387</v>
+        <v>0.01784716065608408</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.05811182821936361</v>
+        <v>0.05773912661032383</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>23</v>
@@ -5203,19 +5203,19 @@
         <v>26425</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>17621</v>
+        <v>17449</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>38996</v>
+        <v>39190</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.04136444246171243</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.02758342588327997</v>
+        <v>0.02731458743231585</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.06104255053577244</v>
+        <v>0.06134717721857048</v>
       </c>
     </row>
     <row r="31">
@@ -5307,19 +5307,19 @@
         <v>832854</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>783333</v>
+        <v>780445</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>888767</v>
+        <v>888562</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2430427006172313</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2285916501713468</v>
+        <v>0.2277489814157754</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2593592738880337</v>
+        <v>0.2592995930426619</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1279</v>
@@ -5328,19 +5328,19 @@
         <v>1376577</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1313500</v>
+        <v>1318449</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>1434060</v>
+        <v>1436130</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.386862680234676</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3691360209666502</v>
+        <v>0.3705269174170019</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4030172168320776</v>
+        <v>0.4035991487437324</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>2040</v>
@@ -5349,19 +5349,19 @@
         <v>2209431</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>2126039</v>
+        <v>2126748</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>2288505</v>
+        <v>2285837</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3163067660577515</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3043682720939518</v>
+        <v>0.3044697620063027</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3276272681179413</v>
+        <v>0.3272453369934935</v>
       </c>
     </row>
     <row r="33">
@@ -5378,19 +5378,19 @@
         <v>671357</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>621480</v>
+        <v>625857</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>718826</v>
+        <v>724080</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.1959147363385039</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1813597335128389</v>
+        <v>0.1826370165301551</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.2097672986666356</v>
+        <v>0.2113005798266193</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>696</v>
@@ -5399,19 +5399,19 @@
         <v>755689</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>706429</v>
+        <v>710365</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>804340</v>
+        <v>805711</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.2123729720179417</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.1985293449025178</v>
+        <v>0.199635623940608</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.2260455767749137</v>
+        <v>0.226430733889296</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>1317</v>
@@ -5420,19 +5420,19 @@
         <v>1427045</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>1357446</v>
+        <v>1357494</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>1494745</v>
+        <v>1502710</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.2042988096714386</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.1943348407048341</v>
+        <v>0.1943417813953645</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.2139908976564193</v>
+        <v>0.2151311624190728</v>
       </c>
     </row>
     <row r="34">
@@ -5449,19 +5449,19 @@
         <v>1922569</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>1865095</v>
+        <v>1864252</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>1982633</v>
+        <v>1984225</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.5610425630442648</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.544270453246662</v>
+        <v>0.5440246235678577</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.5785703552775774</v>
+        <v>0.5790350710727787</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>1323</v>
@@ -5470,19 +5470,19 @@
         <v>1426043</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>1368416</v>
+        <v>1363694</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>1485935</v>
+        <v>1482765</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.4007643477473823</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.3845691460531789</v>
+        <v>0.3832421408195164</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.4175957154338468</v>
+        <v>0.4167050248958768</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>3150</v>
@@ -5491,19 +5491,19 @@
         <v>3348612</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>3271999</v>
+        <v>3263147</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>3449609</v>
+        <v>3436721</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.4793944242708099</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.4684262855805427</v>
+        <v>0.467159058686203</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.4938533088992046</v>
+        <v>0.4920082319847597</v>
       </c>
     </row>
     <row r="35">
@@ -5838,19 +5838,19 @@
         <v>15525</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9068</v>
+        <v>9159</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>24449</v>
+        <v>25380</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0370121512077105</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02161916383397727</v>
+        <v>0.02183460811412171</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05828742310920779</v>
+        <v>0.06050577193982662</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>38</v>
@@ -5859,19 +5859,19 @@
         <v>37981</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>27154</v>
+        <v>27398</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>50577</v>
+        <v>49724</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09596976863750352</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06861299850886478</v>
+        <v>0.06922859926932441</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1277983276811364</v>
+        <v>0.1256435023514356</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>53</v>
@@ -5880,19 +5880,19 @@
         <v>53506</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>40963</v>
+        <v>39539</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>69861</v>
+        <v>67863</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0656336635128997</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05024835704017801</v>
+        <v>0.0485011429201541</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08569559791420332</v>
+        <v>0.08324557827628815</v>
       </c>
     </row>
     <row r="5">
@@ -5909,19 +5909,19 @@
         <v>65431</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>49684</v>
+        <v>51207</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>80381</v>
+        <v>82286</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1559866896647266</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1184458525592191</v>
+        <v>0.1220774948222878</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1916291825207181</v>
+        <v>0.1961701728363226</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>69</v>
@@ -5930,19 +5930,19 @@
         <v>68475</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>55275</v>
+        <v>54950</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>85237</v>
+        <v>85864</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1730228630901225</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1396690311209135</v>
+        <v>0.1388497035167884</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2153784603312001</v>
+        <v>0.2169626580687438</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>132</v>
@@ -5951,19 +5951,19 @@
         <v>133905</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>114579</v>
+        <v>113833</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>156007</v>
+        <v>155361</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1642570552016132</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1405505662460437</v>
+        <v>0.1396344695485034</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1913679679674962</v>
+        <v>0.190576393244991</v>
       </c>
     </row>
     <row r="6">
@@ -5980,19 +5980,19 @@
         <v>338507</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>321886</v>
+        <v>319802</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>354786</v>
+        <v>353530</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8070011591275629</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7673761636001118</v>
+        <v>0.7624077266036037</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8458095802250405</v>
+        <v>0.8428162933943958</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>297</v>
@@ -6001,19 +6001,19 @@
         <v>289300</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>271749</v>
+        <v>269752</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>305227</v>
+        <v>305448</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.731007368272374</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.6866596414717911</v>
+        <v>0.6816138140345542</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7712535261447916</v>
+        <v>0.7718104024742388</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>612</v>
@@ -6022,19 +6022,19 @@
         <v>627807</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>603320</v>
+        <v>602879</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>650299</v>
+        <v>649689</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.7701092812854871</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.74007150735359</v>
+        <v>0.7395307838986144</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7977000388734613</v>
+        <v>0.7969508982643247</v>
       </c>
     </row>
     <row r="7">
@@ -6126,19 +6126,19 @@
         <v>35542</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>24504</v>
+        <v>24826</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>50562</v>
+        <v>49036</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.06019048683294992</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.04149697861048196</v>
+        <v>0.04204193484229978</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.08562699083008669</v>
+        <v>0.08304146634745349</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>69</v>
@@ -6147,19 +6147,19 @@
         <v>68011</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>52756</v>
+        <v>53837</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>82728</v>
+        <v>83369</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1206849780391268</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.09361527305435088</v>
+        <v>0.09553370076283255</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1467996752886897</v>
+        <v>0.1479368015036148</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>101</v>
@@ -6168,19 +6168,19 @@
         <v>103554</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>84620</v>
+        <v>85231</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>122677</v>
+        <v>124099</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.08973130866028149</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.07332528787586653</v>
+        <v>0.0738544285811298</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1063024902956884</v>
+        <v>0.1075342749513429</v>
       </c>
     </row>
     <row r="9">
@@ -6197,19 +6197,19 @@
         <v>77263</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>62140</v>
+        <v>62752</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>95782</v>
+        <v>94307</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1308438138215597</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1052337274401352</v>
+        <v>0.1062694250217288</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1622065739857957</v>
+        <v>0.1597080655143105</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>120</v>
@@ -6218,19 +6218,19 @@
         <v>116510</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>97268</v>
+        <v>98501</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>134086</v>
+        <v>136768</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.20674459342272</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1726006696767179</v>
+        <v>0.1747885074924037</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2379335140397879</v>
+        <v>0.2426924126385967</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>195</v>
@@ -6239,19 +6239,19 @@
         <v>193772</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>171680</v>
+        <v>168224</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>219899</v>
+        <v>219546</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1679078730779916</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1487639935529782</v>
+        <v>0.1457694844757169</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1905470016632196</v>
+        <v>0.1902411835524856</v>
       </c>
     </row>
     <row r="10">
@@ -6268,19 +6268,19 @@
         <v>477691</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>457576</v>
+        <v>456552</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>495041</v>
+        <v>494827</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8089656993454905</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7749010607005371</v>
+        <v>0.7731669719123588</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8383477044083704</v>
+        <v>0.8379861624099678</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>390</v>
@@ -6289,19 +6289,19 @@
         <v>379023</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>358656</v>
+        <v>357347</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>403745</v>
+        <v>399452</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6725704285381532</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6364301850682282</v>
+        <v>0.6341058433990707</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7164383947882746</v>
+        <v>0.7088206468595476</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>850</v>
@@ -6310,19 +6310,19 @@
         <v>856714</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>827825</v>
+        <v>828063</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>886385</v>
+        <v>890292</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.742360818261727</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7173274413041301</v>
+        <v>0.717533679091043</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7680709126687625</v>
+        <v>0.771457162882621</v>
       </c>
     </row>
     <row r="11">
@@ -6414,19 +6414,19 @@
         <v>61928</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>47591</v>
+        <v>48375</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>77611</v>
+        <v>79041</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.09255455498138149</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.07112773614196172</v>
+        <v>0.07229818917888514</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1159931390082923</v>
+        <v>0.1181304591098552</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>109</v>
@@ -6435,19 +6435,19 @@
         <v>108539</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>90938</v>
+        <v>92444</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>129811</v>
+        <v>130247</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1641089218267975</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1374957463598385</v>
+        <v>0.1397728488034559</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1962714500131043</v>
+        <v>0.196930949715549</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>167</v>
@@ -6456,19 +6456,19 @@
         <v>170467</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>147979</v>
+        <v>148823</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>194444</v>
+        <v>195415</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1281244025741212</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1112216674810669</v>
+        <v>0.1118561296354574</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1461456789405891</v>
+        <v>0.1468752324444328</v>
       </c>
     </row>
     <row r="13">
@@ -6485,19 +6485,19 @@
         <v>119405</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>99859</v>
+        <v>99869</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>141860</v>
+        <v>141166</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1784565203917261</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1492444587348128</v>
+        <v>0.1492596371684565</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2120164868641551</v>
+        <v>0.2109806140763971</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>164</v>
@@ -6506,19 +6506,19 @@
         <v>166416</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>143278</v>
+        <v>143044</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>186520</v>
+        <v>187571</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2516177731890194</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2166335401732762</v>
+        <v>0.2162795401936218</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2820143883846274</v>
+        <v>0.283603285106069</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>278</v>
@@ -6527,19 +6527,19 @@
         <v>285821</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>255060</v>
+        <v>258442</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>317692</v>
+        <v>317309</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2148251548499924</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1917044883302197</v>
+        <v>0.1942465270580648</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2387793322717706</v>
+        <v>0.2384916751601298</v>
       </c>
     </row>
     <row r="14">
@@ -6556,19 +6556,19 @@
         <v>487764</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>463848</v>
+        <v>462166</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>510371</v>
+        <v>509142</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7289889246268925</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6932454905281272</v>
+        <v>0.690731025631356</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.762775706705966</v>
+        <v>0.7609387158644025</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>392</v>
@@ -6577,19 +6577,19 @@
         <v>386430</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>362811</v>
+        <v>360862</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>412884</v>
+        <v>409866</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5842733049841832</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5485615883723857</v>
+        <v>0.5456150273674814</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6242715491649263</v>
+        <v>0.6197074959875202</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>858</v>
@@ -6598,19 +6598,19 @@
         <v>874194</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>838668</v>
+        <v>839456</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>907423</v>
+        <v>907160</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6570504425758864</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6303486993192259</v>
+        <v>0.6309410262182369</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.682025014198293</v>
+        <v>0.6818276258402907</v>
       </c>
     </row>
     <row r="15">
@@ -6702,19 +6702,19 @@
         <v>140725</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>121764</v>
+        <v>119576</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>164254</v>
+        <v>164074</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2178245886128811</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1884758538960432</v>
+        <v>0.1850880585488267</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2542442337613832</v>
+        <v>0.2539660846101281</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>191</v>
@@ -6723,19 +6723,19 @@
         <v>206220</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>183290</v>
+        <v>183732</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>232178</v>
+        <v>229879</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3177125539268412</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2823857444385461</v>
+        <v>0.2830658088123342</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3577054779678105</v>
+        <v>0.3541636028062394</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>321</v>
@@ -6744,19 +6744,19 @@
         <v>346945</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>315905</v>
+        <v>314905</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>380970</v>
+        <v>379360</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2678853649059077</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2439182493475202</v>
+        <v>0.2431462082880312</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2941568496187211</v>
+        <v>0.2929140763590122</v>
       </c>
     </row>
     <row r="17">
@@ -6773,19 +6773,19 @@
         <v>158377</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>134133</v>
+        <v>136557</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>183437</v>
+        <v>183684</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.245147947950056</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2076204179711252</v>
+        <v>0.2113722798169762</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.283937457345565</v>
+        <v>0.2843195305041314</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>126</v>
@@ -6794,19 +6794,19 @@
         <v>138146</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>117225</v>
+        <v>119590</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>160676</v>
+        <v>162080</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2128341217507291</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1806025655097762</v>
+        <v>0.184246797780037</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2475456810674999</v>
+        <v>0.2497087781148698</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>267</v>
@@ -6815,19 +6815,19 @@
         <v>296523</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>267051</v>
+        <v>265494</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>332189</v>
+        <v>328759</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2289532520279621</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2061973035645483</v>
+        <v>0.2049952100275615</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2564921796758626</v>
+        <v>0.2538437887017956</v>
       </c>
     </row>
     <row r="18">
@@ -6844,19 +6844,19 @@
         <v>346946</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>319546</v>
+        <v>318678</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>373470</v>
+        <v>372969</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.5370274634370629</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4946157316655929</v>
+        <v>0.4932727035573393</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5780834892769885</v>
+        <v>0.5773086645737833</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>285</v>
@@ -6865,19 +6865,19 @@
         <v>304711</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>278114</v>
+        <v>278157</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>329893</v>
+        <v>328012</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4694533243224297</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.4284760983883458</v>
+        <v>0.428541691733577</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.5082489069495857</v>
+        <v>0.50535190089063</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>596</v>
@@ -6886,19 +6886,19 @@
         <v>651657</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>614525</v>
+        <v>615478</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>687351</v>
+        <v>688251</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.5031613830661302</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4744905802136819</v>
+        <v>0.4752266654514301</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.5307217752069816</v>
+        <v>0.5314169898173327</v>
       </c>
     </row>
     <row r="19">
@@ -6990,19 +6990,19 @@
         <v>176302</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>156328</v>
+        <v>154902</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>200744</v>
+        <v>197918</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3688967060816167</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3271031208577665</v>
+        <v>0.3241175711376642</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.420037561034054</v>
+        <v>0.4141264582621736</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>237</v>
@@ -7011,19 +7011,19 @@
         <v>270545</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>248214</v>
+        <v>248451</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>294849</v>
+        <v>293919</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5445216138099462</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4995770098122645</v>
+        <v>0.5000525104573202</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5934372108016673</v>
+        <v>0.5915659465513512</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>393</v>
@@ -7032,19 +7032,19 @@
         <v>446847</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>415545</v>
+        <v>413866</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>479870</v>
+        <v>479433</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4584145703877893</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4263023216379594</v>
+        <v>0.4245797446203535</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4922922040855968</v>
+        <v>0.4918432164447151</v>
       </c>
     </row>
     <row r="21">
@@ -7061,19 +7061,19 @@
         <v>120051</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>99737</v>
+        <v>100853</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>139247</v>
+        <v>141040</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2511966535448419</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2086909204814126</v>
+        <v>0.2110256991694632</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2913617652264477</v>
+        <v>0.2951139986586193</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>99</v>
@@ -7082,19 +7082,19 @@
         <v>111410</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>92820</v>
+        <v>92437</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>130460</v>
+        <v>131935</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2242340754748451</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1868181990529261</v>
+        <v>0.186047272291426</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2625738643071019</v>
+        <v>0.2655436230138288</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>207</v>
@@ -7103,19 +7103,19 @@
         <v>231462</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>205131</v>
+        <v>202028</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>259477</v>
+        <v>257198</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2374535436623408</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2104408694998517</v>
+        <v>0.2072579649330053</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2661940127472727</v>
+        <v>0.2638561473108753</v>
       </c>
     </row>
     <row r="22">
@@ -7132,19 +7132,19 @@
         <v>181564</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>159611</v>
+        <v>159884</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>204395</v>
+        <v>204214</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3799066403735413</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3339714962585028</v>
+        <v>0.3345424930911465</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4276787196509019</v>
+        <v>0.4272983257825522</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>97</v>
@@ -7153,19 +7153,19 @@
         <v>114894</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>94575</v>
+        <v>96343</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>135502</v>
+        <v>136878</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2312443107152087</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1903505577938877</v>
+        <v>0.1939086629086789</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.272722501781978</v>
+        <v>0.2754916281388229</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>257</v>
@@ -7174,19 +7174,19 @@
         <v>296458</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>266126</v>
+        <v>270028</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>325613</v>
+        <v>331947</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3041318859498699</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2730149936601451</v>
+        <v>0.2770176260989533</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3340413998582072</v>
+        <v>0.3405394453778223</v>
       </c>
     </row>
     <row r="23">
@@ -7278,19 +7278,19 @@
         <v>189962</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>172253</v>
+        <v>172715</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>208338</v>
+        <v>208422</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.5681885566480963</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.5152186336646901</v>
+        <v>0.516599900115857</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.6231504010450762</v>
+        <v>0.6234023755056497</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>250</v>
@@ -7299,19 +7299,19 @@
         <v>263829</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>246447</v>
+        <v>243567</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>281399</v>
+        <v>281205</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.6984006767135601</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.6523877768147396</v>
+        <v>0.6447624550901264</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.7449104098800254</v>
+        <v>0.7443979352969886</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>435</v>
@@ -7320,19 +7320,19 @@
         <v>453792</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>425474</v>
+        <v>428980</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>479498</v>
+        <v>481441</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.6372655735576658</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.5974988045510832</v>
+        <v>0.6024224296628454</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.6733652850036664</v>
+        <v>0.6760933231545848</v>
       </c>
     </row>
     <row r="25">
@@ -7349,19 +7349,19 @@
         <v>94163</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>78874</v>
+        <v>78132</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>111338</v>
+        <v>111390</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2816459232116539</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2359170979038664</v>
+        <v>0.2336968454211063</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3330176087700762</v>
+        <v>0.3331733129649401</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>66</v>
@@ -7370,19 +7370,19 @@
         <v>71699</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>56063</v>
+        <v>56460</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>87254</v>
+        <v>89126</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1897999123806007</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1484078686353025</v>
+        <v>0.1494581789660952</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.230975435878205</v>
+        <v>0.2359326100722061</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>156</v>
@@ -7391,19 +7391,19 @@
         <v>165862</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>143857</v>
+        <v>142449</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>188979</v>
+        <v>188227</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2329219761623047</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2020203163427444</v>
+        <v>0.2000427195738668</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2653862712030748</v>
+        <v>0.264328929875388</v>
       </c>
     </row>
     <row r="26">
@@ -7420,19 +7420,19 @@
         <v>50205</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>38613</v>
+        <v>38481</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>64642</v>
+        <v>65954</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1501655201402498</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1154928670296408</v>
+        <v>0.1150983767696217</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1933471605792244</v>
+        <v>0.1972723927942553</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>38</v>
@@ -7441,19 +7441,19 @@
         <v>42234</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>30864</v>
+        <v>30177</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>57566</v>
+        <v>56727</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1117994109058392</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.0817012331940847</v>
+        <v>0.07988400752488423</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1523867989051409</v>
+        <v>0.1501669476498302</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>88</v>
@@ -7462,19 +7462,19 @@
         <v>92438</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>75844</v>
+        <v>74812</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>110863</v>
+        <v>112945</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1298124502800295</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1065087012265642</v>
+        <v>0.1050587876537421</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1556864225000331</v>
+        <v>0.1586094680710375</v>
       </c>
     </row>
     <row r="27">
@@ -7566,19 +7566,19 @@
         <v>189623</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>175587</v>
+        <v>177274</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>201994</v>
+        <v>202915</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.7378376677731475</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.6832233534352626</v>
+        <v>0.6897867776022764</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.7859736535669701</v>
+        <v>0.7895574435650218</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>243</v>
@@ -7587,19 +7587,19 @@
         <v>324656</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>305809</v>
+        <v>303174</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>341076</v>
+        <v>341255</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.8112974275504595</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.7641986725768233</v>
+        <v>0.7576148286102221</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.8523301981222406</v>
+        <v>0.8527768025038196</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>464</v>
@@ -7608,19 +7608,19 @@
         <v>514279</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>492762</v>
+        <v>489888</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>536409</v>
+        <v>535063</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.7825695525852744</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.7498280432356613</v>
+        <v>0.745454633796689</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.8162451780528821</v>
+        <v>0.814195864946234</v>
       </c>
     </row>
     <row r="29">
@@ -7637,19 +7637,19 @@
         <v>46086</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>36067</v>
+        <v>35876</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>56915</v>
+        <v>57040</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1793250197701355</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1403399495145763</v>
+        <v>0.1395961666764363</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2214626034118672</v>
+        <v>0.2219485401483611</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>47</v>
@@ -7658,19 +7658,19 @@
         <v>60973</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>46028</v>
+        <v>47300</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>77492</v>
+        <v>79017</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1523673422138979</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1150203561270807</v>
+        <v>0.118198830488188</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.19364932386685</v>
+        <v>0.1974587153150394</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>103</v>
@@ -7679,19 +7679,19 @@
         <v>107059</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>88194</v>
+        <v>88630</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>128236</v>
+        <v>128057</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.162909668958976</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1342039395839906</v>
+        <v>0.1348663277679535</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1951342857880471</v>
+        <v>0.1948628908846863</v>
       </c>
     </row>
     <row r="30">
@@ -7708,19 +7708,19 @@
         <v>21289</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>14683</v>
+        <v>14192</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>31289</v>
+        <v>30342</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.08283731245671697</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.057134051688747</v>
+        <v>0.05522232963564259</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1217472687614429</v>
+        <v>0.1180643753311064</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>11</v>
@@ -7729,19 +7729,19 @@
         <v>14540</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>8213</v>
+        <v>7557</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>25968</v>
+        <v>25829</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.03633523023564259</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.02052473149904762</v>
+        <v>0.01888563969118101</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.06489185632829959</v>
+        <v>0.06454579034155375</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>36</v>
@@ -7750,19 +7750,19 @@
         <v>35829</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>25752</v>
+        <v>26182</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>49147</v>
+        <v>49496</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.05452077845574962</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.039186425628301</v>
+        <v>0.0398414343363586</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.07478586556713174</v>
+        <v>0.07531665824077792</v>
       </c>
     </row>
     <row r="31">
@@ -7854,19 +7854,19 @@
         <v>809608</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>760352</v>
+        <v>764074</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>862252</v>
+        <v>860076</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2385164248893366</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.224005101273313</v>
+        <v>0.2251017382393446</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2540258005607766</v>
+        <v>0.2533845174307455</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1137</v>
@@ -7875,19 +7875,19 @@
         <v>1279781</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1220451</v>
+        <v>1212863</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>1339290</v>
+        <v>1335748</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3610569180493427</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3443184172949922</v>
+        <v>0.3421775869072018</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3778455722336492</v>
+        <v>0.3768463126128068</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1934</v>
@@ -7896,19 +7896,19 @@
         <v>2089390</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>2001594</v>
+        <v>2013744</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>2166661</v>
+        <v>2163601</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3011128600502788</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2884601761554669</v>
+        <v>0.2902112413715754</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3122488336970831</v>
+        <v>0.31180790888157</v>
       </c>
     </row>
     <row r="33">
@@ -7925,19 +7925,19 @@
         <v>680776</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>636140</v>
+        <v>638842</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>731460</v>
+        <v>728267</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.2005614358251045</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1874115219178664</v>
+        <v>0.1882073976156876</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.2154933489821723</v>
+        <v>0.214552746984324</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>691</v>
@@ -7946,19 +7946,19 @@
         <v>733629</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>687941</v>
+        <v>683436</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>789587</v>
+        <v>783714</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.2069742466068085</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.1940846743220423</v>
+        <v>0.1928137255021315</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.222761361998545</v>
+        <v>0.2211045483020124</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>1338</v>
@@ -7967,19 +7967,19 @@
         <v>1414405</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>1344745</v>
+        <v>1349831</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>1482968</v>
+        <v>1481613</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.2038372435515527</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.1937982492313011</v>
+        <v>0.1945312668976334</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.2137182815857863</v>
+        <v>0.2135229725630691</v>
       </c>
     </row>
     <row r="34">
@@ -7996,19 +7996,19 @@
         <v>1903966</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>1848973</v>
+        <v>1843874</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>1962120</v>
+        <v>1958878</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.5609221392855589</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.544720845248174</v>
+        <v>0.5432185655089813</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.5780547785201235</v>
+        <v>0.5770996281807047</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>1510</v>
@@ -8017,19 +8017,19 @@
         <v>1531132</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>1472560</v>
+        <v>1467710</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>1595105</v>
+        <v>1590636</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.4319688353438489</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.4154444404269595</v>
+        <v>0.4140761316667176</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.4500173626523371</v>
+        <v>0.4487565612796214</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>3297</v>
@@ -8038,19 +8038,19 @@
         <v>3435098</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>3350824</v>
+        <v>3354427</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>3521876</v>
+        <v>3522006</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.4950498963981685</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.4829048297195595</v>
+        <v>0.4834240453580247</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.5075560249126133</v>
+        <v>0.507574749981263</v>
       </c>
     </row>
     <row r="35">
@@ -8385,19 +8385,19 @@
         <v>44285</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>26084</v>
+        <v>27016</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>71461</v>
+        <v>69110</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1085968703104334</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0639637796725232</v>
+        <v>0.06624980050712716</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1752386353056987</v>
+        <v>0.1694741842346188</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>37</v>
@@ -8406,19 +8406,19 @@
         <v>74034</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>54061</v>
+        <v>54864</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>97288</v>
+        <v>98474</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2042237817738141</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1491299053606341</v>
+        <v>0.1513445042455643</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2683706251529837</v>
+        <v>0.2716425280737068</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>54</v>
@@ -8427,19 +8427,19 @@
         <v>118319</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>88682</v>
+        <v>89963</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>149418</v>
+        <v>148843</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1535996923631189</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1151263571216184</v>
+        <v>0.1167885359361895</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.193971967202048</v>
+        <v>0.1932261027991094</v>
       </c>
     </row>
     <row r="5">
@@ -8456,19 +8456,19 @@
         <v>68907</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45186</v>
+        <v>48032</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>98278</v>
+        <v>96039</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.168974425290514</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1108057626570993</v>
+        <v>0.1177849781904321</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2410003947505664</v>
+        <v>0.2355089435411548</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>49</v>
@@ -8477,19 +8477,19 @@
         <v>83265</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>63537</v>
+        <v>61814</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>107409</v>
+        <v>106367</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2296881835262771</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1752684456641813</v>
+        <v>0.1705169743846022</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2962900620815863</v>
+        <v>0.2934153508305194</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>77</v>
@@ -8498,19 +8498,19 @@
         <v>152171</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>123324</v>
+        <v>123721</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>185356</v>
+        <v>188547</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.1975468262623903</v>
+        <v>0.1975468262623902</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1600976380464218</v>
+        <v>0.1606130458667662</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2406274092881925</v>
+        <v>0.2447691940580527</v>
       </c>
     </row>
     <row r="6">
@@ -8527,19 +8527,19 @@
         <v>294601</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>263497</v>
+        <v>261882</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>322656</v>
+        <v>320461</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.7224287043990527</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6461528735508552</v>
+        <v>0.6421927968003175</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7912258248517052</v>
+        <v>0.7858414578293678</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>121</v>
@@ -8548,19 +8548,19 @@
         <v>205214</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>181373</v>
+        <v>177096</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>230950</v>
+        <v>231033</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5660880346999088</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5003219764375041</v>
+        <v>0.4885257669497957</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6370812373518543</v>
+        <v>0.6373111430905484</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>248</v>
@@ -8569,19 +8569,19 @@
         <v>499815</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>460945</v>
+        <v>458540</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>537118</v>
+        <v>535992</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.6488534813744909</v>
+        <v>0.6488534813744908</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5983931506114475</v>
+        <v>0.5952705259151174</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6972792501179546</v>
+        <v>0.695817583769934</v>
       </c>
     </row>
     <row r="7">
@@ -8673,19 +8673,19 @@
         <v>55010</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>39698</v>
+        <v>38867</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>74122</v>
+        <v>72564</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1153513132596228</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.08324397898552083</v>
+        <v>0.08150074271784724</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1554283510983583</v>
+        <v>0.1521608561311852</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>101</v>
@@ -8694,19 +8694,19 @@
         <v>109451</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>91854</v>
+        <v>90262</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>128486</v>
+        <v>127843</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2181462789893617</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1830741211382886</v>
+        <v>0.1798996503011514</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.256083644953259</v>
+        <v>0.254802088601484</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>139</v>
@@ -8715,19 +8715,19 @@
         <v>164461</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>140308</v>
+        <v>138985</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>191813</v>
+        <v>193308</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1680535212988036</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1433729620828366</v>
+        <v>0.1420208357258078</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1960034314946036</v>
+        <v>0.1975311213953332</v>
       </c>
     </row>
     <row r="9">
@@ -8744,19 +8744,19 @@
         <v>82052</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>62120</v>
+        <v>63048</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>103169</v>
+        <v>105871</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1720555635145255</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1302609792189901</v>
+        <v>0.1322060929581635</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2163365118679235</v>
+        <v>0.2220022666134606</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>108</v>
@@ -8765,19 +8765,19 @@
         <v>116668</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>98135</v>
+        <v>97087</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>138722</v>
+        <v>137845</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2325301666150937</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1955927493092535</v>
+        <v>0.1935025157138819</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2764862128593366</v>
+        <v>0.2747381601159907</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>161</v>
@@ -8786,19 +8786,19 @@
         <v>198720</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>170532</v>
+        <v>167711</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>228780</v>
+        <v>227850</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2030604390068959</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1742567341531037</v>
+        <v>0.1713744092721949</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2337770802708758</v>
+        <v>0.2328268170515332</v>
       </c>
     </row>
     <row r="10">
@@ -8815,19 +8815,19 @@
         <v>339829</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>311617</v>
+        <v>315162</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>362475</v>
+        <v>365141</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7125931232258517</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6534366605977889</v>
+        <v>0.6608703689783587</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.760081836691715</v>
+        <v>0.7656707283978972</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>252</v>
@@ -8836,19 +8836,19 @@
         <v>275614</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>250819</v>
+        <v>251252</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>298536</v>
+        <v>299813</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5493235543955446</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4999052457763237</v>
+        <v>0.5007677083143601</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5950091314231772</v>
+        <v>0.5975545566508886</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>463</v>
@@ -8857,19 +8857,19 @@
         <v>615442</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>579718</v>
+        <v>577686</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>648272</v>
+        <v>652716</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.6288860396943005</v>
+        <v>0.6288860396943006</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5923815270303617</v>
+        <v>0.5903050510805519</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6624324398753735</v>
+        <v>0.6669734052750207</v>
       </c>
     </row>
     <row r="11">
@@ -8961,19 +8961,19 @@
         <v>86474</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>69054</v>
+        <v>68447</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>106628</v>
+        <v>105615</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1392854122607599</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1112274347352651</v>
+        <v>0.1102499661738662</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1717481393879829</v>
+        <v>0.1701172891806524</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>242</v>
@@ -8982,19 +8982,19 @@
         <v>176798</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>157108</v>
+        <v>157777</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>196658</v>
+        <v>195618</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.2836969847866209</v>
+        <v>0.283696984786621</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2521019055674325</v>
+        <v>0.2531758904255608</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3155649710944154</v>
+        <v>0.3138965901633798</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>319</v>
@@ -9003,19 +9003,19 @@
         <v>263271</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>236526</v>
+        <v>236884</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>290628</v>
+        <v>288902</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2116279338640196</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1901294029811255</v>
+        <v>0.1904164428398655</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2336183916568235</v>
+        <v>0.2322306618777894</v>
       </c>
     </row>
     <row r="13">
@@ -9032,19 +9032,19 @@
         <v>149149</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>126774</v>
+        <v>127718</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>172720</v>
+        <v>173216</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2402391404753325</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2041987905025734</v>
+        <v>0.2057197187523164</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2782057998119046</v>
+        <v>0.2790046190044062</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>198</v>
@@ -9053,19 +9053,19 @@
         <v>140450</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>124377</v>
+        <v>123497</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>159195</v>
+        <v>159390</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2253709023960967</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1995795892225736</v>
+        <v>0.1981685091561569</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.255449899678315</v>
+        <v>0.2557638319943257</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>331</v>
@@ -9074,19 +9074,19 @@
         <v>289599</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>262723</v>
+        <v>261950</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>318891</v>
+        <v>316867</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.2327909435224401</v>
+        <v>0.23279094352244</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2111872039927634</v>
+        <v>0.2105658933243855</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.256337415322867</v>
+        <v>0.2547106080339169</v>
       </c>
     </row>
     <row r="14">
@@ -9103,19 +9103,19 @@
         <v>385214</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>358485</v>
+        <v>359913</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>410305</v>
+        <v>412343</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6204754472639077</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.577421484436178</v>
+        <v>0.5797219273487876</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6608897595976496</v>
+        <v>0.6641721159911411</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>408</v>
@@ -9124,19 +9124,19 @@
         <v>305945</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>285895</v>
+        <v>284749</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>327112</v>
+        <v>328809</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4909321128172824</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4587580860199754</v>
+        <v>0.4569189919948241</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5248973430576981</v>
+        <v>0.5276196902145972</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>744</v>
@@ -9145,19 +9145,19 @@
         <v>691159</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>657703</v>
+        <v>657092</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>723478</v>
+        <v>724124</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.5555811226135404</v>
+        <v>0.5555811226135402</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5286875387650721</v>
+        <v>0.5281969920815619</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5815605505941016</v>
+        <v>0.5820793115044008</v>
       </c>
     </row>
     <row r="15">
@@ -9249,19 +9249,19 @@
         <v>211691</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>186435</v>
+        <v>189247</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>235307</v>
+        <v>236272</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3021495229456418</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.266100814641139</v>
+        <v>0.2701149367435771</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3358562359730502</v>
+        <v>0.3372342161621807</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>491</v>
@@ -9270,19 +9270,19 @@
         <v>317964</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>297112</v>
+        <v>296594</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>339873</v>
+        <v>336747</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4314965567914538</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4031997641279594</v>
+        <v>0.4024965947340544</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4612285558430387</v>
+        <v>0.4569860398565022</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>690</v>
@@ -9291,19 +9291,19 @@
         <v>529655</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>494641</v>
+        <v>496134</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>561249</v>
+        <v>565293</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.368454797760687</v>
+        <v>0.3684547977606871</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3440972381500076</v>
+        <v>0.345135855210988</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3904330801027165</v>
+        <v>0.3932463333837533</v>
       </c>
     </row>
     <row r="17">
@@ -9320,19 +9320,19 @@
         <v>166151</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>145418</v>
+        <v>144027</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>188870</v>
+        <v>187982</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2371501374992797</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2075575885387732</v>
+        <v>0.2055715257923953</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2695764655931095</v>
+        <v>0.268309558389921</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>243</v>
@@ -9341,19 +9341,19 @@
         <v>155878</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>139431</v>
+        <v>138345</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>173379</v>
+        <v>173639</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2115364869389609</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1892169204029032</v>
+        <v>0.18774295285117</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.235286491925233</v>
+        <v>0.2356388356178197</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>404</v>
@@ -9362,19 +9362,19 @@
         <v>322030</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>294732</v>
+        <v>291973</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>353031</v>
+        <v>351787</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.2240201870943639</v>
+        <v>0.224020187094364</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2050304120279252</v>
+        <v>0.2031112001810934</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.245585810765774</v>
+        <v>0.2447204984332265</v>
       </c>
     </row>
     <row r="18">
@@ -9391,19 +9391,19 @@
         <v>322774</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>296300</v>
+        <v>297063</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>352463</v>
+        <v>350954</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.4607003395550786</v>
+        <v>0.4607003395550784</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4229129934132721</v>
+        <v>0.4240021495879087</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5030751962632545</v>
+        <v>0.500920889488948</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>407</v>
@@ -9412,19 +9412,19 @@
         <v>263044</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>242710</v>
+        <v>242698</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>284444</v>
+        <v>284955</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3569669562695853</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3293727445177831</v>
+        <v>0.3293564523283328</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3860083275733658</v>
+        <v>0.386702072012191</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>712</v>
@@ -9433,19 +9433,19 @@
         <v>585819</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>555039</v>
+        <v>549874</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>623559</v>
+        <v>624157</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.4075250151449489</v>
+        <v>0.407525015144949</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.386113050927087</v>
+        <v>0.3825197503749247</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4337787962517655</v>
+        <v>0.4341950658760074</v>
       </c>
     </row>
     <row r="19">
@@ -9537,19 +9537,19 @@
         <v>280280</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>258322</v>
+        <v>259015</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>303057</v>
+        <v>303495</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4599679511025341</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4239324645883233</v>
+        <v>0.4250702538435721</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4973477713325403</v>
+        <v>0.4980665355884201</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>564</v>
@@ -9558,19 +9558,19 @@
         <v>343542</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>323482</v>
+        <v>324411</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>363719</v>
+        <v>361714</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.564243268581192</v>
+        <v>0.5642432685811921</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.531295136155025</v>
+        <v>0.53282176618299</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5973819556596645</v>
+        <v>0.5940896073143896</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>876</v>
@@ -9579,19 +9579,19 @@
         <v>623822</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>593039</v>
+        <v>588233</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>654635</v>
+        <v>653836</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5120845937375096</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4868151955783028</v>
+        <v>0.4828699796151625</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5373780913497411</v>
+        <v>0.536721856302529</v>
       </c>
     </row>
     <row r="21">
@@ -9608,19 +9608,19 @@
         <v>166241</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>146404</v>
+        <v>145701</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>187914</v>
+        <v>186309</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2728186508182185</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2402641984517883</v>
+        <v>0.2391106174517908</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3083866243501682</v>
+        <v>0.3057522862382537</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>234</v>
@@ -9629,19 +9629,19 @@
         <v>142791</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>126009</v>
+        <v>127670</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>161182</v>
+        <v>159524</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.2345245998597396</v>
+        <v>0.2345245998597397</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2069612049540165</v>
+        <v>0.209688810300745</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2647291760748848</v>
+        <v>0.2620058156730269</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>414</v>
@@ -9650,19 +9650,19 @@
         <v>309033</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>284150</v>
+        <v>284466</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>336477</v>
+        <v>337736</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2536793432897897</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2332539596372681</v>
+        <v>0.2335133470757919</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2762079009693504</v>
+        <v>0.2772411939745075</v>
       </c>
     </row>
     <row r="22">
@@ -9679,19 +9679,19 @@
         <v>162825</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>141737</v>
+        <v>141805</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>183919</v>
+        <v>184582</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2672133980792473</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2326050640056083</v>
+        <v>0.2327166394368487</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.301830164100556</v>
+        <v>0.3029177450467527</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>204</v>
@@ -9700,19 +9700,19 @@
         <v>122521</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>107765</v>
+        <v>107598</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>138011</v>
+        <v>138576</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2012321315590683</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1769968927618259</v>
+        <v>0.176721631869198</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2266734959209836</v>
+        <v>0.2276004022216849</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>375</v>
@@ -9721,19 +9721,19 @@
         <v>285347</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>258121</v>
+        <v>258446</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>311773</v>
+        <v>310247</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2342360629727007</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.211886750163451</v>
+        <v>0.212153717906982</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2559289623134992</v>
+        <v>0.2546757925720969</v>
       </c>
     </row>
     <row r="23">
@@ -9825,19 +9825,19 @@
         <v>231964</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>215694</v>
+        <v>214010</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>249474</v>
+        <v>246842</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.5698246500943124</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.5298568128522438</v>
+        <v>0.5257197368546017</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.6128389855899394</v>
+        <v>0.6063733574209206</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>593</v>
@@ -9846,19 +9846,19 @@
         <v>315581</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>302012</v>
+        <v>301110</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>327824</v>
+        <v>327796</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.7185917656523055</v>
+        <v>0.7185917656523053</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.6876947403544609</v>
+        <v>0.6856414560487949</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.746468581756206</v>
+        <v>0.7464053034137464</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>923</v>
@@ -9867,19 +9867,19 @@
         <v>547545</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>525427</v>
+        <v>523763</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>570434</v>
+        <v>567936</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.6470285522659877</v>
+        <v>0.6470285522659878</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.6208912451926495</v>
+        <v>0.6189247243236904</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.6740762684201744</v>
+        <v>0.6711237850131542</v>
       </c>
     </row>
     <row r="25">
@@ -9896,19 +9896,19 @@
         <v>99358</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>84741</v>
+        <v>83754</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>116021</v>
+        <v>114296</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2440737514923544</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2081674417506384</v>
+        <v>0.2057422260232323</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2850071133546288</v>
+        <v>0.2807693787504479</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>131</v>
@@ -9917,19 +9917,19 @@
         <v>68980</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>58335</v>
+        <v>58925</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>79620</v>
+        <v>80868</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1570711441629098</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1328318988196217</v>
+        <v>0.1341737042854555</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1812988109394573</v>
+        <v>0.1841410052188807</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>269</v>
@@ -9938,19 +9938,19 @@
         <v>168338</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>152012</v>
+        <v>150915</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>189046</v>
+        <v>187510</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1989230422126231</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1796309978157453</v>
+        <v>0.1783345486642587</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2233934188141702</v>
+        <v>0.2215786675335074</v>
       </c>
     </row>
     <row r="26">
@@ -9967,19 +9967,19 @@
         <v>75758</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>62117</v>
+        <v>64033</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>89526</v>
+        <v>88555</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1861015984133332</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.152592451965732</v>
+        <v>0.1572984970545744</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2199221021367826</v>
+        <v>0.2175362692867445</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>103</v>
@@ -9988,19 +9988,19 @@
         <v>54605</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>44260</v>
+        <v>45136</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>64574</v>
+        <v>64655</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1243370901847848</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.100782964328999</v>
+        <v>0.1027768503842454</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1470370618619676</v>
+        <v>0.1472233188721817</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>205</v>
@@ -10009,19 +10009,19 @@
         <v>130363</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>113878</v>
+        <v>113730</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>148017</v>
+        <v>146836</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.154048405521389</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1345680719193452</v>
+        <v>0.1343934956063481</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1749105217418875</v>
+        <v>0.1735150123832401</v>
       </c>
     </row>
     <row r="27">
@@ -10113,19 +10113,19 @@
         <v>231116</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>217105</v>
+        <v>217904</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>243969</v>
+        <v>244136</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.7450583171555587</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.699891506449504</v>
+        <v>0.7024686888893731</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.7864954074228858</v>
+        <v>0.7870332033643368</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>746</v>
@@ -10134,19 +10134,19 @@
         <v>386772</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>373609</v>
+        <v>373572</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>398670</v>
+        <v>397751</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.8324680491312715</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.8041362520357473</v>
+        <v>0.8040566247383171</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.8580757406404586</v>
+        <v>0.8560978001562216</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1097</v>
@@ -10155,19 +10155,19 @@
         <v>617888</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>598857</v>
+        <v>600035</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>634974</v>
+        <v>635967</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.7974730838986895</v>
+        <v>0.7974730838986894</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.7729105463446246</v>
+        <v>0.7744317579157189</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.8195256170524474</v>
+        <v>0.8208071311334736</v>
       </c>
     </row>
     <row r="29">
@@ -10184,19 +10184,19 @@
         <v>48057</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>38205</v>
+        <v>37321</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>59943</v>
+        <v>58572</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1549244935594068</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1231621685090732</v>
+        <v>0.1203143242632577</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1932424551490278</v>
+        <v>0.1888212315453814</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>82</v>
@@ -10205,19 +10205,19 @@
         <v>47391</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>38235</v>
+        <v>37487</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>58697</v>
+        <v>57060</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.1020028546530313</v>
+        <v>0.1020028546530312</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.08229560957693086</v>
+        <v>0.08068595319824196</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1263358654423093</v>
+        <v>0.1228124916811441</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>148</v>
@@ -10226,19 +10226,19 @@
         <v>95449</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>81860</v>
+        <v>81646</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>111888</v>
+        <v>110022</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.123190322818412</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1056523316997055</v>
+        <v>0.1053758555090833</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1444069698771137</v>
+        <v>0.141998861387359</v>
       </c>
     </row>
     <row r="30">
@@ -10255,19 +10255,19 @@
         <v>31025</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>22458</v>
+        <v>21838</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>40706</v>
+        <v>41229</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1000171892850344</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.07239914626308294</v>
+        <v>0.07040030635682437</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1312249907207916</v>
+        <v>0.1329124426646369</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>53</v>
@@ -10276,19 +10276,19 @@
         <v>30445</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>22985</v>
+        <v>23113</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>39272</v>
+        <v>40293</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.06552909621569715</v>
+        <v>0.06552909621569714</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.04947132807534985</v>
+        <v>0.04974824338385639</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.08452603819011308</v>
+        <v>0.0867248847720674</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>94</v>
@@ -10297,19 +10297,19 @@
         <v>61471</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>49194</v>
+        <v>51501</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>73783</v>
+        <v>75297</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.07933659328289851</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.06349136243322835</v>
+        <v>0.06646903529793713</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.09522814549002383</v>
+        <v>0.0971814136802053</v>
       </c>
     </row>
     <row r="31">
@@ -10401,19 +10401,19 @@
         <v>1140819</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1086166</v>
+        <v>1080143</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>1200748</v>
+        <v>1196797</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.3229256272451861</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3074551715711908</v>
+        <v>0.3057504173086999</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3398893028249449</v>
+        <v>0.3387709262693741</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>2774</v>
@@ -10422,19 +10422,19 @@
         <v>1724142</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1669498</v>
+        <v>1672112</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>1776102</v>
+        <v>1777660</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.4613763600743805</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.4467535595557532</v>
+        <v>0.4474530844938493</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4752806776127179</v>
+        <v>0.4756974563710953</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>4098</v>
@@ -10443,19 +10443,19 @@
         <v>2864962</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>2776217</v>
+        <v>2775205</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>2942113</v>
+        <v>2938234</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3940954002529922</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3818879201369373</v>
+        <v>0.3817487654082554</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4047081461397947</v>
+        <v>0.4041744898064048</v>
       </c>
     </row>
     <row r="33">
@@ -10472,19 +10472,19 @@
         <v>779915</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>729561</v>
+        <v>725923</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>838966</v>
+        <v>828557</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.2207663251698474</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.2065130533358705</v>
+        <v>0.2054832030484751</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.2374815047478641</v>
+        <v>0.2345351954599796</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>1045</v>
@@ -10493,19 +10493,19 @@
         <v>755424</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>711361</v>
+        <v>709280</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>799648</v>
+        <v>800679</v>
       </c>
       <c r="N33" s="6" t="n">
-        <v>0.2021496250219207</v>
+        <v>0.2021496250219206</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.1903584271849001</v>
+        <v>0.1898017481651035</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.2139839215277258</v>
+        <v>0.2142598716544555</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>1804</v>
@@ -10514,19 +10514,19 @@
         <v>1535339</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>1461357</v>
+        <v>1465064</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>1608348</v>
+        <v>1610257</v>
       </c>
       <c r="U33" s="6" t="n">
-        <v>0.2111965215537343</v>
+        <v>0.2111965215537342</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.2010197785893098</v>
+        <v>0.2015297354617888</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.2212394617412108</v>
+        <v>0.2215020561643035</v>
       </c>
     </row>
     <row r="34">
@@ -10543,19 +10543,19 @@
         <v>1612028</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>1543510</v>
+        <v>1545338</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>1676953</v>
+        <v>1680879</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.4563080475849665</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.4369130641151273</v>
+        <v>0.4374304976743967</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.4746860029308513</v>
+        <v>0.475797393798334</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>1548</v>
@@ -10564,19 +10564,19 @@
         <v>1257388</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>1210466</v>
+        <v>1206360</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>1317551</v>
+        <v>1316328</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.3364740149036989</v>
+        <v>0.3364740149036988</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.3239178537410344</v>
+        <v>0.3228190510847619</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.35257345832186</v>
+        <v>0.3522463098588632</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>2841</v>
@@ -10585,19 +10585,19 @@
         <v>2869416</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>2789491</v>
+        <v>2785815</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>2967216</v>
+        <v>2960312</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.3947080781932735</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.383713875134561</v>
+        <v>0.3832081684443428</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.4081611815922125</v>
+        <v>0.4072115270480127</v>
       </c>
     </row>
     <row r="35">
